--- a/doc/roc.xlsx
+++ b/doc/roc.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="72">
   <si>
     <t>表名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -149,6 +149,144 @@
   </si>
   <si>
     <t>中度或更严重的视网膜病变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>algorithm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p4</t>
+  </si>
+  <si>
+    <t>o4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p5</t>
+  </si>
+  <si>
+    <t>p6</t>
+  </si>
+  <si>
+    <t>p7</t>
+  </si>
+  <si>
+    <t>p8</t>
+  </si>
+  <si>
+    <t>p9</t>
+  </si>
+  <si>
+    <t>p10</t>
+  </si>
+  <si>
+    <t>p11</t>
+  </si>
+  <si>
+    <t>p12</t>
+  </si>
+  <si>
+    <t>p13</t>
+  </si>
+  <si>
+    <t>p14</t>
+  </si>
+  <si>
+    <t>p15</t>
+  </si>
+  <si>
+    <t>p16</t>
+  </si>
+  <si>
+    <t>p17</t>
+  </si>
+  <si>
+    <t>p18</t>
+  </si>
+  <si>
+    <t>p19</t>
+  </si>
+  <si>
+    <t>p20</t>
+  </si>
+  <si>
+    <t>p21</t>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>se</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>me</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o-avg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>频次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计频次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tpr</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -205,18 +343,18 @@
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -317,23 +455,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="310665216"/>
-        <c:axId val="310605312"/>
+        <c:axId val="119808768"/>
+        <c:axId val="119810304"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="310665216"/>
+        <c:axId val="119808768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="310605312"/>
+        <c:crossAx val="119810304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="310605312"/>
+        <c:axId val="119810304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -341,7 +479,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="310665216"/>
+        <c:crossAx val="119808768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -354,7 +492,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -724,18 +862,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="29.375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="29.375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:9">
       <c r="B1" t="s">
         <v>28</v>
       </c>
@@ -746,8 +885,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:9">
+      <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B2">
@@ -760,8 +899,8 @@
         <v>1748</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:9">
+      <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B3">
@@ -774,11 +913,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:9">
+      <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="5" t="s">
         <v>31</v>
       </c>
       <c r="C4">
@@ -788,8 +927,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:9">
+      <c r="A5" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B5">
@@ -802,8 +941,8 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:9">
+      <c r="A6" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B6">
@@ -816,8 +955,8 @@
         <v>874</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:9">
+      <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B7">
@@ -830,8 +969,8 @@
         <v>57.6</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:9">
+      <c r="A8" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B8">
@@ -844,8 +983,8 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:9">
+      <c r="A9" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B9">
@@ -858,92 +997,181 @@
         <v>1748</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:9">
+      <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="2">
         <v>118419</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="2">
         <v>8788</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="2">
         <v>1745</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="5" t="s">
+      <c r="G10" t="s">
+        <v>69</v>
+      </c>
+      <c r="H10" t="s">
+        <v>70</v>
+      </c>
+      <c r="I10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="2">
         <v>53759</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="2">
         <v>7252</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="2">
         <v>1217</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="5" t="s">
+      <c r="E11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1217</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>264</v>
+      </c>
+      <c r="I11">
+        <f>264/414</f>
+        <v>0.6376811594202898</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="2">
         <v>30637</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="2">
         <v>842</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="2">
         <v>264</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="5" t="s">
+      <c r="E12" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="2">
+        <v>264</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>264</v>
+      </c>
+      <c r="I12">
+        <f>264/414</f>
+        <v>0.6376811594202898</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="2">
         <v>24366</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="2">
         <v>545</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="2">
         <v>211</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="5" t="s">
+      <c r="E13" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" s="2">
+        <v>211</v>
+      </c>
+      <c r="G13" s="2">
+        <v>211</v>
+      </c>
+      <c r="H13" s="2">
+        <v>264</v>
+      </c>
+      <c r="I13">
+        <f>264/414</f>
+        <v>0.6376811594202898</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="2">
         <v>5298</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="2">
         <v>54</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="2">
         <v>28</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="5" t="s">
+      <c r="E14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" s="2">
+        <v>28</v>
+      </c>
+      <c r="G14" s="2">
+        <v>53</v>
+      </c>
+      <c r="H14" s="2">
+        <v>53</v>
+      </c>
+      <c r="I14">
+        <f>53/414</f>
+        <v>0.1280193236714976</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="2">
         <v>4359</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="2">
         <v>95</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="2">
         <v>25</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="5" t="s">
+      <c r="E15" t="s">
+        <v>66</v>
+      </c>
+      <c r="F15" s="2">
+        <v>25</v>
+      </c>
+      <c r="G15" s="2">
+        <v>25</v>
+      </c>
+      <c r="H15" s="2">
+        <v>25</v>
+      </c>
+      <c r="I15">
+        <f>25/414</f>
+        <v>6.0386473429951688E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B16" s="1">
@@ -955,23 +1183,46 @@
       <c r="D16" s="1">
         <v>125</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="5" t="s">
+      <c r="E16" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" s="2">
+        <v>125</v>
+      </c>
+      <c r="G16" s="1">
+        <v>125</v>
+      </c>
+      <c r="H16" s="1">
+        <v>125</v>
+      </c>
+      <c r="I16">
+        <f>125/414</f>
+        <v>0.30193236714975846</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="2">
         <v>33246</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="2">
         <v>683</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="2">
         <v>254</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="5" t="s">
+      <c r="F17" s="2">
+        <v>1745</v>
+      </c>
+      <c r="G17">
+        <f>SUM(G11:G16)</f>
+        <v>414</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B18">
@@ -985,6 +1236,167 @@
       <c r="D18">
         <f t="shared" si="0"/>
         <v>264</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="E22" t="s">
+        <v>34</v>
+      </c>
+      <c r="F22" t="s">
+        <v>35</v>
+      </c>
+      <c r="G22" t="s">
+        <v>36</v>
+      </c>
+      <c r="H22" t="s">
+        <v>37</v>
+      </c>
+      <c r="I22" t="s">
+        <v>39</v>
+      </c>
+      <c r="J22" t="s">
+        <v>40</v>
+      </c>
+      <c r="K22" t="s">
+        <v>41</v>
+      </c>
+      <c r="L22" t="s">
+        <v>42</v>
+      </c>
+      <c r="M22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="D23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" t="s">
+        <v>62</v>
+      </c>
+      <c r="F23" t="s">
+        <v>62</v>
+      </c>
+      <c r="G23" t="s">
+        <v>62</v>
+      </c>
+      <c r="H23" t="s">
+        <v>63</v>
+      </c>
+      <c r="I23" t="s">
+        <v>63</v>
+      </c>
+      <c r="J23" t="s">
+        <v>63</v>
+      </c>
+      <c r="K23" t="s">
+        <v>63</v>
+      </c>
+      <c r="L23" t="s">
+        <v>63</v>
+      </c>
+      <c r="M23" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="D24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="D25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="D26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="D27" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="D28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="D29" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="D30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="D31" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="D32" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4">
+      <c r="D33" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="4:4">
+      <c r="D34" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="4:4">
+      <c r="D35" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="4:4">
+      <c r="D36" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="4:4">
+      <c r="D37" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="4:4">
+      <c r="D38" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="4:4">
+      <c r="D39" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="4:4">
+      <c r="D40" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="4:4">
+      <c r="D41" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" spans="4:4">
+      <c r="D42" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="4:4">
+      <c r="D43" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1004,7 +1416,7 @@
   <dimension ref="A1:S14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:A22"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1028,48 +1440,48 @@
       </c>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="3" t="s">
+      <c r="E2" s="6"/>
+      <c r="F2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="6"/>
-      <c r="S2" s="6"/>
+      <c r="N2" s="4"/>
+      <c r="S2" s="4"/>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3" s="2"/>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="6"/>
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="K3" s="6"/>
-      <c r="M3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="K3" s="4"/>
+      <c r="M3" s="4"/>
     </row>
     <row r="4" spans="1:19">
       <c r="A4">
@@ -1079,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <f>B4+C5</f>
+        <f t="shared" ref="C4:C12" si="0">B4+C5</f>
         <v>69</v>
       </c>
       <c r="D4">
@@ -1110,14 +1522,14 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <f>B5+C6</f>
+        <f t="shared" si="0"/>
         <v>69</v>
       </c>
       <c r="D5">
         <v>109</v>
       </c>
       <c r="E5">
-        <f>D5+E4</f>
+        <f t="shared" ref="E5:E13" si="1">D5+E4</f>
         <v>138</v>
       </c>
       <c r="F5">
@@ -1129,7 +1541,7 @@
         <v>0.60555555555555551</v>
       </c>
       <c r="H5">
-        <f t="shared" ref="H5:H13" si="0">1-G5</f>
+        <f t="shared" ref="H5:H13" si="2">1-G5</f>
         <v>0.39444444444444449</v>
       </c>
     </row>
@@ -1141,14 +1553,14 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <f>B6+C7</f>
+        <f t="shared" si="0"/>
         <v>66</v>
       </c>
       <c r="D6">
         <v>24</v>
       </c>
       <c r="E6">
-        <f>D6+E5</f>
+        <f t="shared" si="1"/>
         <v>162</v>
       </c>
       <c r="F6">
@@ -1160,7 +1572,7 @@
         <v>0.76666666666666672</v>
       </c>
       <c r="H6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.23333333333333328</v>
       </c>
     </row>
@@ -1172,14 +1584,14 @@
         <v>3</v>
       </c>
       <c r="C7">
-        <f>B7+C8</f>
+        <f t="shared" si="0"/>
         <v>65</v>
       </c>
       <c r="D7">
         <v>6</v>
       </c>
       <c r="E7">
-        <f>D7+E6</f>
+        <f t="shared" si="1"/>
         <v>168</v>
       </c>
       <c r="F7">
@@ -1191,7 +1603,7 @@
         <v>0.93333333333333335</v>
       </c>
       <c r="H7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.6666666666666652E-2</v>
       </c>
     </row>
@@ -1203,14 +1615,14 @@
         <v>5</v>
       </c>
       <c r="C8">
-        <f>B8+C9</f>
+        <f t="shared" si="0"/>
         <v>62</v>
       </c>
       <c r="D8">
         <v>2</v>
       </c>
       <c r="E8">
-        <f>D8+E7</f>
+        <f t="shared" si="1"/>
         <v>170</v>
       </c>
       <c r="F8">
@@ -1222,7 +1634,7 @@
         <v>0.94444444444444442</v>
       </c>
       <c r="H8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5.555555555555558E-2</v>
       </c>
     </row>
@@ -1234,14 +1646,14 @@
         <v>11</v>
       </c>
       <c r="C9">
-        <f>B9+C10</f>
+        <f t="shared" si="0"/>
         <v>57</v>
       </c>
       <c r="D9">
         <v>6</v>
       </c>
       <c r="E9">
-        <f>D9+E8</f>
+        <f t="shared" si="1"/>
         <v>176</v>
       </c>
       <c r="F9">
@@ -1253,7 +1665,7 @@
         <v>0.97777777777777775</v>
       </c>
       <c r="H9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.2222222222222254E-2</v>
       </c>
     </row>
@@ -1265,14 +1677,14 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <f>B10+C11</f>
+        <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10">
-        <f>D10+E9</f>
+        <f t="shared" si="1"/>
         <v>177</v>
       </c>
       <c r="F10">
@@ -1284,7 +1696,7 @@
         <v>0.98333333333333328</v>
       </c>
       <c r="H10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.6666666666666718E-2</v>
       </c>
     </row>
@@ -1296,14 +1708,14 @@
         <v>8</v>
       </c>
       <c r="C11">
-        <f>B11+C12</f>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11">
-        <f>D11+E10</f>
+        <f t="shared" si="1"/>
         <v>178</v>
       </c>
       <c r="F11">
@@ -1315,7 +1727,7 @@
         <v>0.98888888888888893</v>
       </c>
       <c r="H11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.1111111111111072E-2</v>
       </c>
     </row>
@@ -1327,14 +1739,14 @@
         <v>3</v>
       </c>
       <c r="C12">
-        <f>B12+C13</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="D12">
         <v>2</v>
       </c>
       <c r="E12">
-        <f>D12+E11</f>
+        <f t="shared" si="1"/>
         <v>180</v>
       </c>
       <c r="F12">
@@ -1346,12 +1758,12 @@
         <v>1</v>
       </c>
       <c r="H12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:19">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B13">
@@ -1365,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <f>D13+E12</f>
+        <f t="shared" si="1"/>
         <v>180</v>
       </c>
       <c r="F13">
@@ -1377,7 +1789,7 @@
         <v>1</v>
       </c>
       <c r="H13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1393,12 +1805,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="H2:H3"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555596" footer="0.51180555555555596"/>
